--- a/source/cis-320-schedule.xlsx
+++ b/source/cis-320-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1307B-ACB5-4CE7-BD17-026E3DB71C23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFA825-DA02-4C21-90F0-97FE969C870D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18050" windowHeight="12530" xr2:uid="{967B78C6-4EF1-48DA-8505-C8137F259C42}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Final exam week</t>
   </si>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD02309D-0BB9-428D-B359-9037BD3B26F7}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D45"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A30" si="0">A2+7</f>
+        <f t="shared" ref="A4:A31" si="0">A2+7</f>
         <v>44222</v>
       </c>
       <c r="B4">
@@ -1050,160 +1050,172 @@
       <c r="C30" t="s">
         <v>0</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>44315</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
+      <c r="E31">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D33" s="7" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="4">
-        <f>SUM(E13:E30)</f>
+      <c r="E34" s="4">
+        <f>SUM(E13:E31)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>0.93</v>
       </c>
-      <c r="E35">
-        <f>ROUNDUP($E$33*D35,0)</f>
+      <c r="E36">
+        <f>ROUNDUP($E$34*D36,0)</f>
         <v>930</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <v>0.9</v>
       </c>
-      <c r="E36">
-        <f t="shared" ref="E36:E45" si="1">ROUNDUP($E$33*D36,0)</f>
+      <c r="E37">
+        <f t="shared" ref="E37:E46" si="1">ROUNDUP($E$34*D37,0)</f>
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>0.87</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>0.83</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <f t="shared" si="1"/>
         <v>830</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>0.8</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>0.77</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <f t="shared" si="1"/>
         <v>770</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>0.73</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>730</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>0.7</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <v>0.67</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>670</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <v>0.63</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>0.6</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>

--- a/source/cis-320-schedule.xlsx
+++ b/source/cis-320-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFA825-DA02-4C21-90F0-97FE969C870D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417550B8-6222-4D9E-83FE-0B507600ABD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18050" windowHeight="12530" xr2:uid="{967B78C6-4EF1-48DA-8505-C8137F259C42}"/>
   </bookViews>
@@ -85,15 +85,6 @@
     <t>Syllabus, CRUD overview, stack overview</t>
   </si>
   <si>
-    <t>Local &amp; production environment setups. Work on lab 1.</t>
-  </si>
-  <si>
-    <t>Get IntelliJ and Tomcat to work together. Work on JS tutorial</t>
-  </si>
-  <si>
-    <t>Work on jQuery and regular expression tutorials</t>
-  </si>
-  <si>
     <t>Talk about JSON Work with setting up Amazon RDS</t>
   </si>
   <si>
@@ -230,6 +221,15 @@
   </si>
   <si>
     <t>Work on assignment 8</t>
+  </si>
+  <si>
+    <t>Local &amp; production environment setups. Show IntelliJ and Tomcat working. Demo how to do Lab 1.</t>
+  </si>
+  <si>
+    <t>Go through JavaScript chapter</t>
+  </si>
+  <si>
+    <t>Go through jQuery chapter. Go through regular expression tutorial.</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD02309D-0BB9-428D-B359-9037BD3B26F7}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,10 +627,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -667,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -727,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -739,10 +739,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -757,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -802,10 +802,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -832,10 +832,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -850,10 +850,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -892,10 +892,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -910,7 +910,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -949,7 +949,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -961,10 +961,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -979,10 +979,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -997,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1018,7 +1018,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1027,13 +1027,13 @@
         <v>44308</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -1045,7 +1045,7 @@
         <v>44313</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>44315</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>40</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>40</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>40</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>40</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>200</v>

--- a/source/cis-320-schedule.xlsx
+++ b/source/cis-320-schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417550B8-6222-4D9E-83FE-0B507600ABD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6136E7-BF20-4C86-A55C-C95C9451957D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18050" windowHeight="12530" xr2:uid="{967B78C6-4EF1-48DA-8505-C8137F259C42}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Final exam week</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Go through jQuery chapter. Go through regular expression tutorial.</t>
+  </si>
+  <si>
+    <t>Meme generator</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,6 +869,9 @@
       </c>
       <c r="B17">
         <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
